--- a/map_dashboard/data/Base_teste.xlsx
+++ b/map_dashboard/data/Base_teste.xlsx
@@ -1,99 +1,351 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive - HECTARE\Documentos\0. Pessoal\Vox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hectare-my.sharepoint.com/personal/gabriel_katsuura_hectarecapital_com_br/Documents/Documentos/GitHub/dashboard/map_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48E916-E69E-4611-9D71-BDE0C5774191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{FD48E916-E69E-4611-9D71-BDE0C5774191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09115679-323D-469A-9120-7971C441C98D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$D$38</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>Lider</t>
-  </si>
-  <si>
-    <t>Auxiliar</t>
-  </si>
-  <si>
-    <t>Endereco</t>
-  </si>
-  <si>
-    <t>Pessoa A</t>
-  </si>
-  <si>
-    <t>Pessoa B</t>
-  </si>
-  <si>
-    <t>Pessoa C</t>
-  </si>
-  <si>
-    <t>Pessoa D</t>
-  </si>
-  <si>
-    <t>Pessoa E</t>
-  </si>
-  <si>
-    <t>Pessoa A1</t>
-  </si>
-  <si>
-    <t>Pessoa B1</t>
-  </si>
-  <si>
-    <t>Pessoa C1</t>
-  </si>
-  <si>
-    <t>Pessoa D1</t>
-  </si>
-  <si>
-    <t>Pessoa E1</t>
-  </si>
-  <si>
-    <t>Av. dos Autonomistas, 1400 - Vila Yara, Osasco - SP, 06020-010</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
   <si>
     <t>Situação</t>
   </si>
   <si>
-    <t>Aberto</t>
-  </si>
-  <si>
-    <t>Fechado</t>
-  </si>
-  <si>
-    <t>R. Conselheiro Moreira de Barros, 2780 - Lauzane Paulista, São Paulo - SP, 02430-001</t>
-  </si>
-  <si>
-    <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
-  </si>
-  <si>
-    <t>R. Itacaiúna, 61 - Vila Andrade, São Paulo - SP, 05716-070</t>
-  </si>
-  <si>
-    <t>Av. Reg. Feijó, 1739 - Tatuapé, São Paulo - SP, 03342-000</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>Amanda Campos Santos</t>
+  </si>
+  <si>
+    <t>Deborá Bezerra</t>
+  </si>
+  <si>
+    <t>Gabriel Chefaly Dias</t>
+  </si>
+  <si>
+    <t>Joseph e Leticia Rohland</t>
+  </si>
+  <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
+    <t>Ligia Cavallari</t>
+  </si>
+  <si>
+    <t>Israel Paixao</t>
+  </si>
+  <si>
+    <t>Milena Vegas</t>
+  </si>
+  <si>
+    <t>Rafael Henrique Santos de Assunção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raquel Pereira da Silva </t>
+  </si>
+  <si>
+    <t>Sarah Nayumi</t>
+  </si>
+  <si>
+    <t>Gabriel Katsuura</t>
+  </si>
+  <si>
+    <t>Guilherme Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André Pessoa </t>
+  </si>
+  <si>
+    <t>Melissa Aquile</t>
+  </si>
+  <si>
+    <t>Paloma C. Silva Ignácio</t>
+  </si>
+  <si>
+    <t>Tamires Ramos</t>
+  </si>
+  <si>
+    <t>Lucas Pimenta</t>
+  </si>
+  <si>
+    <t>Deborah Lachaitis</t>
+  </si>
+  <si>
+    <t>Thiago Lourenço</t>
+  </si>
+  <si>
+    <t>Filipe de Camargo Reis</t>
+  </si>
+  <si>
+    <t>Gabriel e Geovana Campos</t>
+  </si>
+  <si>
+    <t>Eduardo Lopo</t>
+  </si>
+  <si>
+    <t>Leonardo Mendes</t>
+  </si>
+  <si>
+    <t>Lara Bicudo</t>
+  </si>
+  <si>
+    <t>Talita Tais de Mota</t>
+  </si>
+  <si>
+    <t>Juliane Brito Vidal</t>
+  </si>
+  <si>
+    <t>Livia Bastos e Paulo Prudente</t>
+  </si>
+  <si>
+    <t>Michele Landim</t>
+  </si>
+  <si>
+    <t>Alexandre e Giovanna Costa</t>
+  </si>
+  <si>
+    <t>Migyael e Rebeca Torres</t>
+  </si>
+  <si>
+    <t>Gabe Pinheiro</t>
+  </si>
+  <si>
+    <t>Mateus Lara Kerr</t>
+  </si>
+  <si>
+    <t>Davi Pinto Almeida</t>
+  </si>
+  <si>
+    <t>Arthur Beda</t>
+  </si>
+  <si>
+    <t>Julia de Cassia Moreira</t>
+  </si>
+  <si>
+    <t>Amanda Simonetti</t>
+  </si>
+  <si>
+    <t>Avenida Padre Antonio Jose dos Santos, 1144, Brooklin</t>
+  </si>
+  <si>
+    <t>Rua Sampaio Viana, 125, apartamento 21 - Paraíso</t>
+  </si>
+  <si>
+    <t>Rua Édison 640, Campo Belo - Apto 21B2</t>
+  </si>
+  <si>
+    <t>Rua Professor Jose Horacio Meireles Teixeira, 806 - Apto 52</t>
+  </si>
+  <si>
+    <t>Av Paulista, 648 - Apto 1211 Bloco E5</t>
+  </si>
+  <si>
+    <t>Rua Nuncio Petrella, 285</t>
+  </si>
+  <si>
+    <t>Rua David Ben Gurion, 955</t>
+  </si>
+  <si>
+    <t>Rua Trajano Reis, 186 - Condomínio Villa Verde Bloco 4 AP 61, Vila Sônia</t>
+  </si>
+  <si>
+    <t>Rua Amadeu Roldan, 266 - casa 1 - Vila Aurora, Jaraguá</t>
+  </si>
+  <si>
+    <t>Av. Aprigio Bezerra da Silva, 1335, apto 93A, Chacara Agrindus</t>
+  </si>
+  <si>
+    <t>Rua Dr Homem de Melo, 261, apt 6A</t>
+  </si>
+  <si>
+    <t>Avenida Higienópolis, 15, Apto 21</t>
+  </si>
+  <si>
+    <t>Rua das Barcas, 235 - Jardim dos Estados</t>
+  </si>
+  <si>
+    <t>Rua Coronel Camisão 209 - Vila Gomes</t>
+  </si>
+  <si>
+    <t>R. Professor José Geraldo de Lima, 285</t>
+  </si>
+  <si>
+    <t>Avenida Padre Antônio José dos Santos, 1144</t>
+  </si>
+  <si>
+    <t>Av. José Galante, 737</t>
+  </si>
+  <si>
+    <t>Av. Capuava 100</t>
+  </si>
+  <si>
+    <t>Praça Dom Francisco De Sousa 126 Apto 154 Bloco B</t>
+  </si>
+  <si>
+    <t>Rua Elzo Piteri, 233</t>
+  </si>
+  <si>
+    <t>Rua Guido Mazzoni, 3 - Ap 614</t>
+  </si>
+  <si>
+    <t>Rua Sampaio Viana, 323 ap 191</t>
+  </si>
+  <si>
+    <t>Rua Carlos Lisdegno Carlucci, 420</t>
+  </si>
+  <si>
+    <t>Rua doutor Luís ulhoa Cintra 224</t>
+  </si>
+  <si>
+    <t>Rua Santa Catarina 541</t>
+  </si>
+  <si>
+    <t>Av. Pres. João Goulart, 1 (Bloco Dakota, Apto 93)</t>
+  </si>
+  <si>
+    <t>Rua Dias Vieira 410 - Apto 213</t>
+  </si>
+  <si>
+    <t>Rua Manuel da Nóbrega 318</t>
+  </si>
+  <si>
+    <t>Rua Ângelo viera de brito, 194 - Morumbi. Casa, ( atrás da casa azusa)</t>
+  </si>
+  <si>
+    <t>Rua Guilherme Jesus,  20, apt 11 (Osasco Km 18)</t>
+  </si>
+  <si>
+    <t>Rua Francisco Moniz Barreto, 136
+Jardim Lar São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Itambé, 289 - Higienópolis | apto 02</t>
+  </si>
+  <si>
+    <t>Rua José Maciel Neto, 215; Apto 184, Bloco C; Bairro Jardim Maria Rosa</t>
+  </si>
+  <si>
+    <t>Rua roque petrella 68 - Vila Cordeiro</t>
+  </si>
+  <si>
+    <t>Rua Guaraiuva 450</t>
+  </si>
+  <si>
+    <t>Rua Dona Rosina, 199</t>
+  </si>
+  <si>
+    <t>Quinta-Feira</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>Terça- feira</t>
+  </si>
+  <si>
+    <t>20h30</t>
+  </si>
+  <si>
+    <t>Quarta-Feira</t>
+  </si>
+  <si>
+    <t>19h30</t>
+  </si>
+  <si>
+    <t>Quarta-feira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinta-feira </t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>16h30</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>Sexta-feira</t>
+  </si>
+  <si>
+    <t>15:30h</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Horário</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Líder</t>
+  </si>
+  <si>
+    <t>Aberto - 85% Cheio (+3/5 pessoas)</t>
+  </si>
+  <si>
+    <t>Fechado - Há espaço mas não consegue cuidar</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Aberto - Tranquilo para receber mais</t>
+  </si>
+  <si>
+    <t>Fechado - não há espaço</t>
   </si>
 </sst>
 </file>
@@ -101,14 +353,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -129,15 +387,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4BE73A08-5D85-4D49-BFDB-D1AF3635B24D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,141 +678,1009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-23.6085975164339</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-46.6883835880448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-23.5732993445876</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-46.645069153153599</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-23.621523232623701</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-46.676622575049599</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-23.612242831613401</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-46.738033119900699</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-23.567226726144199</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-46.649218587653102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-23.560522937894699</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-46.749478386830702</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-23.6083116092979</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-46.734622593541999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-23.588010475899502</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-46.739878718055401</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-23.436730666200798</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-46.749447791071802</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-23.608625640388901</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-46.766079246889902</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-23.537817123369699</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-46.667661033397799</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-23.5453948143087</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-46.652344291067898</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-23.636500064955499</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-46.686070475723803</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-23.5755692453818</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-46.731059662231701</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-23.5748718454713</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-46.756135189220799</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-23.6085975164339</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-46.6883835880448</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-23.621663938423801</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-46.737942089219104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-23.663275346227302</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-46.505155591063499</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-23.5414330994242</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-46.656280767657798</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-23.483419313856398</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-46.645487668427201</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-23.5614903740464</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-46.656267968934003</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-23.631127187112099</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-46.7353901646484</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-23.558489482831799</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-46.569887788181902</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-23.660914674943999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-46.705936218052798</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-23.5282154893663</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-46.804973918057698</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-23.560856138088202</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-46.760895424167302</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-23.574070145944201</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-46.646956046891198</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-23.588703469881899</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-46.7393984180556</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-23.6077562023717</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-46.738606091065598</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-23.5296925159432</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-46.566149183542599</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-23.557163282850698</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-46.776028318056703</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-23.596606505723202</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-46.732778746890297</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-23.570226078696798</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-46.650332175726497</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-23.6092428019249</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-46.741728846889899</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-23.526705800691399</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-46.802442075728003</v>
+      </c>
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-23.609378801883999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-46.739433075725003</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-23.547512020462499</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-46.653825489221802</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-23.6128040230526</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-46.7672154603842</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-23.6218361474997</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-46.685053191065002</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-23.611517301241001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-46.689338833395297</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-23.403704732649199</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-46.750338933402901</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D2:D38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>